--- a/src/test/resources/students_02.xlsx
+++ b/src/test/resources/students_02.xlsx
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,6 +150,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -484,8 +488,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>10000000000001</v>
+      <c r="A2" s="7">
+        <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -501,7 +505,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>10000000000002</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -518,7 +522,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>10000000000004</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -533,6 +537,9 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
